--- a/DesignerConfigs/Datas/item/道具分类子表.xlsx
+++ b/DesignerConfigs/Datas/item/道具分类子表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RefactorDemo824_walon\X6Game\DesignerConfigs\item\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\luban_examples\DesignerConfigs\Datas\item\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C751767C-DAB0-48B8-B2F2-9797C36B126F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0995ADE6-D2C1-46CE-A662-0E4782A06FAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="18240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29340" yWindow="690" windowWidth="27645" windowHeight="14835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="宝箱数值表" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2189" uniqueCount="394">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2174" uniqueCount="394">
   <si>
     <t>null</t>
   </si>
@@ -5152,8 +5152,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5384,7 +5384,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="2">
-        <v>1001</v>
+        <v>1</v>
       </c>
       <c r="J8" s="2">
         <v>100</v>
@@ -5402,8 +5402,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView topLeftCell="L4" workbookViewId="0">
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5555,12 +5555,8 @@
       <c r="K5" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="L5" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
     </row>
     <row r="6" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="12"/>
@@ -5669,9 +5665,7 @@
       <c r="L8" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="M8" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="M8" s="2"/>
     </row>
     <row r="9" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="12"/>
@@ -5740,12 +5734,8 @@
       <c r="K10" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="L10" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="M10" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
     </row>
     <row r="11" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
@@ -5777,12 +5767,8 @@
       <c r="K11" s="9">
         <v>6001</v>
       </c>
-      <c r="L11" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="M11" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
     </row>
     <row r="12" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A12" s="2"/>
@@ -5814,12 +5800,8 @@
       <c r="K12" s="9">
         <v>6001</v>
       </c>
-      <c r="L12" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="M12" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
     </row>
     <row r="13" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
@@ -5851,12 +5833,8 @@
       <c r="K13" s="9">
         <v>6001</v>
       </c>
-      <c r="L13" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="M13" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
     </row>
     <row r="14" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
@@ -5888,12 +5866,8 @@
       <c r="K14" s="9">
         <v>6001</v>
       </c>
-      <c r="L14" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="M14" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="2"/>
@@ -5925,12 +5899,8 @@
       <c r="K15" s="9">
         <v>6001</v>
       </c>
-      <c r="L15" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="M15" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
